--- a/计划/计划实现功能时间划分.xlsx
+++ b/计划/计划实现功能时间划分.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gmg\Mange\SRG-ERP\计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CF68ED-EB8C-4D5A-954E-79C290797A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CD1C66-E68B-4841-8F65-82DE11313455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="短线功能" sheetId="2" r:id="rId1"/>
-    <sheet name="长线功能" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="43">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>制卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,7 +87,140 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保管员根据质检结果选择入库仓库</t>
+    <t>烘干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库、库位、货位、入库管理、出库管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业人员、班组、作业内容、工种、作业单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收购结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务记账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凭证录入、待付款、供应商管理、供应商账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短线功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长线功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员信息、权限信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮食等级及收购价格配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收购结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收购管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各部门报表统计、打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保管员根据质检结果选择入库仓库（手机端）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计台账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出入库明细表、出入库日报表、收购/销售日结单、收购/销售日报表、省内省外销售报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按时间顺序统计库存历史及当前库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算单、开票、统计报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽样、烘干单、成本计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说明：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.黑色字体为不同部分
+2.其余部分相同的功能       
+</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +252,63 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCC3300"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCC3300"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +321,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,29 +336,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -177,6 +447,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -451,258 +726,566 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD00A0E-3FF7-4BDF-82D1-B112E5ECF552}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="19"/>
+    <col min="2" max="2" width="9" style="23"/>
+    <col min="3" max="3" width="11" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9" style="19"/>
+    <col min="10" max="10" width="9" style="23"/>
+    <col min="11" max="11" width="11" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9" style="19"/>
+    <col min="15" max="15" width="9" style="19" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="I2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" s="22" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="K6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="25"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+    </row>
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="25"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
+  <mergeCells count="53">
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="J12:J16"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I2:I16"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D1:G1"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="128" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>